--- a/data/Wholesaler_Database.xlsx
+++ b/data/Wholesaler_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/01_APP_Dash/01_APP_Production/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1455" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2628352-0777-442E-9D56-8360547E9846}"/>
+  <xr:revisionPtr revIDLastSave="1488" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8291944C-A88A-468C-9E02-7C6D1936D437}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="294">
   <si>
     <t>GMX20902</t>
   </si>
@@ -62,12 +63,6 @@
     <t>GVP21518</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-Elongated-16-gpf-Toilet/WHITE-270CA001020</t>
-  </si>
-  <si>
-    <t>270CA001</t>
-  </si>
-  <si>
     <t>American Standard</t>
   </si>
   <si>
@@ -218,9 +213,6 @@
     <t>GWS20918</t>
   </si>
   <si>
-    <t>GVP21502</t>
-  </si>
-  <si>
     <t>317310000</t>
   </si>
   <si>
@@ -290,9 +282,6 @@
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Standard-Height-Round-Front-Bowl-Less-Seat/WHITE-3437D101020</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/viper-1-6-gpf-12-rough-in-two-piece-round-front-toilet/products/us-GVP21502</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/maxwell-1-28-gpf-12-rough-in-two-piece-elongated-toilet/products/us-GWS20912</t>
   </si>
   <si>
@@ -329,9 +318,6 @@
     <t>OPP</t>
   </si>
   <si>
-    <t>123010000</t>
-  </si>
-  <si>
     <t>131900001</t>
   </si>
   <si>
@@ -353,9 +339,6 @@
     <t>Viper 12" ADA EL Combo 1.6</t>
   </si>
   <si>
-    <t>Cadet 3 1.6 EL Combo</t>
-  </si>
-  <si>
     <t>Alto 130/160 RF 1.6 Combo</t>
   </si>
   <si>
@@ -371,9 +354,6 @@
     <t>Maxwell  12 ADA EL 1.28 Combo</t>
   </si>
   <si>
-    <t>Viper 12 Std RF 1.6 Combo</t>
-  </si>
-  <si>
     <t>Maxwell 12 Std EL 1.28 Combo</t>
   </si>
   <si>
@@ -942,9 +922,6 @@
   </si>
   <si>
     <t>ALTO BOWL 130 1.6</t>
-  </si>
-  <si>
-    <t>COMMERCIAL BOWL 1319 EL  1.28</t>
   </si>
   <si>
     <t>348 4" LAV</t>
@@ -5146,11 +5123,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:R52"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,81 +5155,81 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f>VLOOKUP(B2,Mansfield!$D$1:$L$20,9,0)</f>
+        <f>VLOOKUP(B2,Mansfield!$D$1:$L$19,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$52,B2)</f>
-        <v>3</v>
+        <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$50,B2)</f>
+        <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="12" t="str">
         <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
@@ -5261,52 +5239,52 @@
         <v>12</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="L2" s="15">
         <v>1.6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q2" s="25">
         <v>0.41</v>
       </c>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12" t="str">
-        <f>VLOOKUP(B3,Mansfield!$D$1:$L$20,9,0)</f>
+        <f>VLOOKUP(B3,Mansfield!$D$1:$L$19,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="12" t="str">
         <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
@@ -5316,38 +5294,38 @@
         <v>12</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="15">
         <v>1.6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="25">
         <v>0.41</v>
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="12" t="str">
-        <f>VLOOKUP(B4,Mansfield!$D$1:$L$20,9,0)</f>
+        <f>VLOOKUP(B4,Mansfield!$D$1:$L$19,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="D4" s="12">
@@ -5358,10 +5336,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12" t="str">
         <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
@@ -5371,106 +5349,107 @@
         <v>12</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="L4" s="15">
         <v>1.6</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="25">
         <v>0.41</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12" t="str">
-        <f>VLOOKUP(B5,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 135/160  El 1.6 Combo</v>
+        <f>VLOOKUP(B5,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="12">
+        <v>43</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f>VLOOKUP(E5,[1]query!$D:$O,4,0)</f>
+        <v>Reliant</v>
+      </c>
+      <c r="I5" s="15">
         <v>12</v>
       </c>
       <c r="J5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1.6</v>
+      <c r="L5" s="15">
+        <v>1.28</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="25">
         <v>0.34</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="str">
-        <f>VLOOKUP(B6,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 130/160 RF 1.6 Combo</v>
+        <f>VLOOKUP(B6,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="str">
         <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
@@ -5480,10 +5459,10 @@
         <v>12</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L6" s="15">
         <v>1.28</v>
@@ -5492,40 +5471,40 @@
         <v>106</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="O6" s="12"/>
       <c r="P6" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="25">
         <v>0.34</v>
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>VLOOKUP(B7,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 135/160  El 1.6 Combo</v>
+        <f>VLOOKUP(B7,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="str">
         <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
@@ -5535,166 +5514,160 @@
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" s="15">
         <v>1.28</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>28</v>
+        <v>105</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="25">
         <v>0.34</v>
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>VLOOKUP(B8,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+        <f>VLOOKUP(B8,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" s="12" t="str">
         <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
-        <v>Reliant</v>
+        <v>Ultra Flush</v>
       </c>
       <c r="I8" s="15">
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="L8" s="15">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="O8" s="14"/>
       <c r="P8" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="25">
         <v>0.34</v>
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <f>VLOOKUP(B9,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="31">
+        <v>123010000</v>
+      </c>
+      <c r="C9" s="31" t="str">
+        <f>VLOOKUP(B9,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM TANK  123 LH</v>
+      </c>
+      <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="12" t="str">
+      <c r="E9" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="31" t="str">
         <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="33">
         <v>12</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="33">
         <v>1.6</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>0.41</v>
+      </c>
+      <c r="R9" s="31">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="31" t="str">
-        <f>VLOOKUP(B10,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C10" s="31"/>
       <c r="D10" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="31" t="str">
-        <f>VLOOKUP(E10,[1]query!$D:$O,4,0)</f>
-        <v>Ultra Flush</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="I10" s="33">
         <v>12</v>
@@ -5702,48 +5675,51 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="33">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="34">
         <v>0.41</v>
       </c>
       <c r="R10" s="31">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="36">
+        <v>160010007</v>
+      </c>
+      <c r="C11" s="31" t="str">
+        <f>VLOOKUP(B11,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" s="33">
         <v>12</v>
@@ -5751,17 +5727,17 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="33">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="34">
         <v>0.41</v>
@@ -5770,64 +5746,65 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="36">
-        <v>160010007</v>
-      </c>
-      <c r="C12" s="31" t="str">
-        <f>VLOOKUP(B12,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
+      <c r="B12" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="33">
         <v>12</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="33">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N12" s="31"/>
-      <c r="O12" s="31" t="s">
-        <v>259</v>
+      <c r="O12" s="37" t="s">
+        <v>253</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="34">
         <v>0.41</v>
       </c>
       <c r="R12" s="31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31">
@@ -5835,516 +5812,514 @@
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13" s="33">
         <v>12</v>
       </c>
       <c r="J13" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="L13" s="33">
         <v>1.28</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N13" s="31"/>
-      <c r="O13" s="37" t="s">
-        <v>260</v>
+      <c r="O13" s="31" t="s">
+        <v>254</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="34">
         <v>0.41</v>
       </c>
       <c r="R13" s="31">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>VLOOKUP(B14,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="33">
         <v>12</v>
       </c>
       <c r="J14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>53</v>
-      </c>
       <c r="L14" s="33">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="31" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="34">
         <v>0.41</v>
       </c>
       <c r="R14" s="31">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C15" s="31" t="str">
-        <f>VLOOKUP(B15,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
+        <f>VLOOKUP(B15,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 151 EL ADA 1.6</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="I15" s="33">
         <v>12</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="33">
-        <v>1.6</v>
+        <v>51</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>233</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q15" s="34">
         <v>0.41</v>
       </c>
       <c r="R15" s="31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="31" t="str">
-        <f>VLOOKUP(B16,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
+        <f>VLOOKUP(B16,Mansfield!$D$1:$L$19,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="33">
-        <v>12</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>240</v>
+        <v>66</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33">
+        <v>1.6</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="34">
         <v>0.41</v>
       </c>
       <c r="R16" s="31">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="31" t="str">
-        <f>VLOOKUP(B17,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
-      </c>
-      <c r="D17" s="31">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="12" t="str">
+        <f>VLOOKUP(B17,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33">
+      <c r="E17" s="13">
+        <v>2467016</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="12">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="12">
         <v>1.6</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R17" s="31">
-        <v>132</v>
-      </c>
+      <c r="M17" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>60</v>
+      <c r="A18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12">
+        <v>123010000</v>
       </c>
       <c r="C18" s="12" t="str">
-        <f>VLOOKUP(B18,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
+        <f>VLOOKUP(B18,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM TANK  123 LH</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="13">
-        <v>2467016</v>
+      <c r="E18" s="17">
+        <v>4142016</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="12">
-        <v>12</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="12">
         <v>1.6</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="25">
         <v>0.34</v>
       </c>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>8</v>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="12" t="str">
-        <f>VLOOKUP(B19,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
+        <f>VLOOKUP(B19,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="17">
-        <v>4142016</v>
+        <v>3043001</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="12">
-        <v>1.6</v>
+        <v>46</v>
+      </c>
+      <c r="I19" s="15">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="12"/>
       <c r="P19" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="25">
         <v>0.34</v>
       </c>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="12" t="str">
-        <f>VLOOKUP(B20,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL  1.28</v>
-      </c>
-      <c r="D20" s="12">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E20" s="17">
-        <v>3043001</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="15">
-        <v>12</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="25">
+      <c r="E20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="21">
+        <v>1.28</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q20" s="26">
         <v>0.34</v>
       </c>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="16">
+        <v>160010007</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>VLOOKUP(B21,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N21" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q21" s="26">
+      <c r="E21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q21" s="25">
         <v>0.34</v>
       </c>
-      <c r="R21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="16">
-        <v>160010007</v>
-      </c>
-      <c r="C22" s="12" t="str">
-        <f>VLOOKUP(B22,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="E22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="21">
+        <v>12</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q22" s="25">
+      <c r="K22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="21">
+        <v>1.28</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="26">
         <v>0.34</v>
       </c>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19">
@@ -6352,487 +6327,466 @@
         <v>2</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="21">
         <v>12</v>
       </c>
       <c r="J23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="L23" s="21">
         <v>1.28</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="26">
         <v>0.34</v>
       </c>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>VLOOKUP(B24,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="E24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="15">
         <v>12</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="21">
+      <c r="L24" s="15">
         <v>1.28</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q24" s="26">
+      <c r="M24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q24" s="25">
         <v>0.34</v>
       </c>
-      <c r="R24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12" t="str">
-        <f>VLOOKUP(B25,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
+        <f>VLOOKUP(B25,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 151 EL ADA 1.6</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>43</v>
+      <c r="E25" s="17">
+        <v>3703100</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I25" s="15">
         <v>12</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L25" s="15">
-        <v>1.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q25" s="25">
         <v>0.34</v>
       </c>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12" t="str">
-        <f>VLOOKUP(B26,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
+        <f>VLOOKUP(B26,Mansfield!$D$1:$L$19,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E26" s="17">
-        <v>3703100</v>
+      <c r="E26" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="15">
-        <v>12</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="25">
         <v>0.34</v>
       </c>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27" s="12" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
+        <f>VLOOKUP(B27,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="I27" s="15">
+        <v>10</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L27" s="15">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q27" s="25">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="str">
-        <f>VLOOKUP(B28,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL  1.28</v>
+        <f>VLOOKUP(B28,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="L28" s="15">
         <v>1.28</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q28" s="25">
         <v>0.41</v>
       </c>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="12" t="str">
-        <f>VLOOKUP(B29,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+        <f>VLOOKUP(B29,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>HET 3489-V El 1.28 Combo </v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I29" s="15">
         <v>12</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="L29" s="15">
         <v>1.28</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="25">
         <v>0.41</v>
       </c>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="12" t="str">
-        <f>VLOOKUP(B30,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 130/160 RF 1.6 Combo</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="B30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>VLOOKUP(B30,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="15">
-        <v>12</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="27">
         <v>0.41</v>
       </c>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12" t="str">
-        <f>VLOOKUP(B31,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>HET 3489-V El 1.28 Combo </v>
-      </c>
-      <c r="D31" s="12">
+      <c r="B31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>VLOOKUP(B31,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="15">
-        <v>12</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q31" s="25">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q31" s="27">
         <v>0.41</v>
       </c>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>VLOOKUP(B32,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>237 Lav</v>
+        <f>VLOOKUP(B32,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>292 Lav</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -6840,41 +6794,41 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="O32" s="10"/>
+      <c r="M32" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q32" s="27">
         <v>0.41</v>
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>VLOOKUP(B33,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>217 Lav</v>
+        <f>VLOOKUP(B33,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 4" LAV</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -6883,40 +6837,40 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O33" s="10"/>
       <c r="P33" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="27">
         <v>0.41</v>
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>VLOOKUP(B34,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>292 Lav</v>
+        <f>VLOOKUP(B34,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34:D52" si="1">COUNTIF($B$2:$B$52,B34)</f>
+        <f t="shared" ref="D34:D50" si="1">COUNTIF($B$2:$B$50,B34)</f>
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -6924,41 +6878,41 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" s="10"/>
       <c r="P34" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="27">
         <v>0.41</v>
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>VLOOKUP(B35,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 4" LAV</v>
+        <f>VLOOKUP(B35,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>239 4" MS ROUND LAV</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -6967,40 +6921,40 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="27">
         <v>0.41</v>
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>VLOOKUP(B36,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <f>VLOOKUP(B36,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>348 4" LAV</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -7009,40 +6963,40 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="27">
         <v>0.41</v>
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>VLOOKUP(B37,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>239 4" MS ROUND LAV</v>
+        <f>VLOOKUP(B37,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>272 4" LAV</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -7051,40 +7005,40 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O37" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O37" s="3"/>
       <c r="P37" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="27">
         <v>0.41</v>
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>VLOOKUP(B38,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>348 4" LAV</v>
+        <f>VLOOKUP(B38,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>251 4" LAV</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -7093,40 +7047,40 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q38" s="27">
         <v>0.41</v>
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>VLOOKUP(B39,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>272 4" LAV</v>
+        <f>VLOOKUP(B39,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -7135,40 +7089,40 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O39" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="O39" s="10"/>
       <c r="P39" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q39" s="27">
         <v>0.41</v>
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>VLOOKUP(B40,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>251 4" LAV</v>
+        <f>VLOOKUP(B40,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 8" LAV</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -7177,124 +7131,124 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>244</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="27">
         <v>0.41</v>
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>VLOOKUP(B41,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D41" s="9">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="22" t="str">
+        <f>VLOOKUP(B41,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D41" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>0.41</v>
+      <c r="E41" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>0.34</v>
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>VLOOKUP(B42,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D42" s="9">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="22" t="str">
+        <f>VLOOKUP(B42,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D42" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q42" s="27">
-        <v>0.41</v>
+      <c r="E42" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>0.34</v>
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f>VLOOKUP(B43,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>237 Lav</v>
+        <f>VLOOKUP(B43,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>292 Lav</v>
       </c>
       <c r="D43" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -7303,40 +7257,40 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N43" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O43" s="22"/>
       <c r="P43" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q43" s="28">
         <v>0.34</v>
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C44" s="22" t="str">
-        <f>VLOOKUP(B44,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>217 Lav</v>
+        <f>VLOOKUP(B44,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 4" LAV</v>
       </c>
       <c r="D44" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>167</v>
+      <c r="E44" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -7345,40 +7299,40 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N44" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O44" s="22"/>
       <c r="P44" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="28">
         <v>0.34</v>
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C45" s="22" t="str">
-        <f>VLOOKUP(B45,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>292 Lav</v>
+        <f>VLOOKUP(B45,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D45" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -7387,40 +7341,40 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O45" s="22"/>
       <c r="P45" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q45" s="28">
         <v>0.34</v>
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C46" s="22" t="str">
-        <f>VLOOKUP(B46,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 4" LAV</v>
+        <f>VLOOKUP(B46,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>348 4" LAV</v>
       </c>
       <c r="D46" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>198</v>
+      <c r="E46" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
@@ -7429,40 +7383,40 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N46" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O46" s="22"/>
       <c r="P46" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q46" s="28">
         <v>0.34</v>
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C47" s="22" t="str">
-        <f>VLOOKUP(B47,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <f>VLOOKUP(B47,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>272 4" LAV</v>
       </c>
       <c r="D47" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -7471,40 +7425,40 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O47" s="22"/>
       <c r="P47" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q47" s="28">
         <v>0.34</v>
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f>VLOOKUP(B48,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>348 4" LAV</v>
+        <f>VLOOKUP(B48,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>251 4" LAV</v>
       </c>
       <c r="D48" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
@@ -7513,40 +7467,40 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="N48" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="O48" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O48" s="24"/>
       <c r="P48" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q48" s="28">
         <v>0.34</v>
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C49" s="22" t="str">
-        <f>VLOOKUP(B49,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>272 4" LAV</v>
+        <f>VLOOKUP(B49,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D49" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
@@ -7555,30 +7509,30 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O49" s="22"/>
       <c r="P49" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q49" s="28">
         <v>0.34</v>
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C50" s="22" t="str">
-        <f>VLOOKUP(B50,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>251 4" LAV</v>
+        <f>VLOOKUP(B50,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 8" LAV</v>
       </c>
       <c r="D50" s="22">
         <f t="shared" si="1"/>
@@ -7588,7 +7542,7 @@
         <v>166</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
@@ -7597,141 +7551,63 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="O50" s="24"/>
+        <v>196</v>
+      </c>
+      <c r="O50" s="22"/>
       <c r="P50" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q50" s="28">
         <v>0.34</v>
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="22" t="str">
-        <f>VLOOKUP(B51,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D51" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="N51" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q51" s="28">
-        <v>0.34</v>
-      </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="22" t="str">
-        <f>VLOOKUP(B52,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D52" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q52" s="28">
-        <v>0.34</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R52" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="QUANTUM TANK  123 LH"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
-    <hyperlink ref="N18" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{E3330B5E-87F5-49AA-8053-64A164A612C6}"/>
-    <hyperlink ref="N19" r:id="rId4" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N50" r:id="rId5" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
-    <hyperlink ref="N3" r:id="rId6" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
-    <hyperlink ref="N4" r:id="rId7" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
-    <hyperlink ref="N9" r:id="rId8" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N32" r:id="rId9" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N33" r:id="rId10" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N35" r:id="rId11" xr:uid="{3F809B5C-0F80-4242-A83A-CB2D74BB3A0E}"/>
-    <hyperlink ref="N36" r:id="rId12" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N37" r:id="rId13" xr:uid="{F473458B-5628-44DC-BD66-D3DDD7DD07A2}"/>
-    <hyperlink ref="N38" r:id="rId14" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N40" r:id="rId15" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N41" r:id="rId16" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N42" r:id="rId17" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="O13" r:id="rId18" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
-    <hyperlink ref="N22" r:id="rId20" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
-    <hyperlink ref="N7" r:id="rId21" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N52" r:id="rId22" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
+    <hyperlink ref="N17" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
+    <hyperlink ref="N18" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
+    <hyperlink ref="N48" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
+    <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
+    <hyperlink ref="N30" r:id="rId8" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="N31" r:id="rId9" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="N33" r:id="rId10" xr:uid="{3F809B5C-0F80-4242-A83A-CB2D74BB3A0E}"/>
+    <hyperlink ref="N34" r:id="rId11" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="N35" r:id="rId12" xr:uid="{F473458B-5628-44DC-BD66-D3DDD7DD07A2}"/>
+    <hyperlink ref="N36" r:id="rId13" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="N38" r:id="rId14" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="N39" r:id="rId15" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="N40" r:id="rId16" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="O12" r:id="rId17" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="N20" r:id="rId18" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="N6" r:id="rId20" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N50" r:id="rId21" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-  <dimension ref="A1:R33"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,99 +7625,99 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K2" s="4">
         <v>1.6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P2" s="3">
         <v>0.42749999999999999</v>
@@ -7851,45 +7727,45 @@
         <v>206.63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3">
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="4">
         <v>1.6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P3" s="3">
         <v>0.42749999999999999</v>
@@ -7899,45 +7775,45 @@
         <v>224.85999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K4" s="4">
         <v>1.6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P4" s="3">
         <v>0.42749999999999999</v>
@@ -7947,43 +7823,43 @@
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>12</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" s="4">
         <v>1.28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P5" s="3">
         <v>0.42749999999999999</v>
@@ -7993,45 +7869,45 @@
         <v>354.87</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3">
         <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K6" s="4">
         <v>1.28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P6" s="3">
         <v>0.42749999999999999</v>
@@ -8043,43 +7919,43 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="4">
         <v>1.6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P7" s="3">
         <v>0.42749999999999999</v>
@@ -8089,43 +7965,43 @@
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H8" s="3">
         <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="3">
         <v>1.28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P8" s="3">
         <v>0.42749999999999999</v>
@@ -8135,43 +8011,43 @@
         <v>52.257166153334992</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P9" s="3">
         <v>0.42749999999999999</v>
@@ -8181,43 +8057,43 @@
         <v>90.068346141637491</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3">
         <v>1.28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P10" s="3">
         <v>0.42749999999999999</v>
@@ -8229,43 +8105,43 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9" t="s">
-        <v>95</v>
+      <c r="D11" s="9">
+        <v>123010000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P11" s="3">
         <v>0.42749999999999999</v>
@@ -8275,449 +8151,437 @@
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="9" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P12" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="8">
-        <v>117.11139459698248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>41.3095536973387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9" t="s">
-        <v>59</v>
+      <c r="D13" s="29">
+        <v>160010007</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P13" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="8">
-        <v>41.3095536973387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>41.309324999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="29">
-        <v>160010007</v>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.6</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P14" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="8">
-        <v>41.309324999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>94.481695102577731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K15" s="3">
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P15" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="8">
-        <v>94.481695102577731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>54.817767294848409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K16" s="3">
         <v>1.6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P16" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="8">
-        <v>54.817767294848409</v>
+        <v>47.024419817793579</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="9" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K17" s="3">
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P17" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="8">
-        <v>47.024419817793579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>212.23939813904951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.6</v>
+        <v>48</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P18" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="8">
-        <v>212.23939813904951</v>
+        <v>49.064810425312494</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>50</v>
+      <c r="G19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1.28</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P19" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="8">
-        <v>49.064810425312494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="6">
-        <v>10</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1.28</v>
-      </c>
+        <v>117.11139459698248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P20" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="8">
-        <v>117.11139459698248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="38">
+        <v>52.942869297499996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8726,34 +8590,34 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P21" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="38">
-        <v>52.942869297499996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>85.042520952999979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8762,34 +8626,34 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P22" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="38">
-        <v>85.042520952999979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>157.47435999099997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8798,34 +8662,34 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P23" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="38">
-        <v>157.47435999099997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>216.42350989999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -8834,34 +8698,34 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>286</v>
+      <c r="N24" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P24" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="38">
-        <v>216.42350989999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>143.22306508899996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -8870,34 +8734,34 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="10" t="s">
-        <v>287</v>
+      <c r="N25" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P25" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="38">
-        <v>143.22306508899996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>53.863614850499999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -8906,34 +8770,34 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P26" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="38">
-        <v>53.863614850499999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>127.29442705849998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -8942,34 +8806,34 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P27" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="38">
-        <v>127.29442705849998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>112.84723806849998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8978,34 +8842,34 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P28" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="38">
-        <v>112.84723806849998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>96.55129862299998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -9014,34 +8878,34 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P29" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="38">
-        <v>96.55129862299998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>179.00866749999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -9050,68 +8914,39 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P30" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="38">
-        <v>179.00866749999997</v>
+        <v>216.42350989999997</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="38">
-        <v>216.42350989999997</v>
-      </c>
+      <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="39"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:R30" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Commercial"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="N25" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
+    <hyperlink ref="N24" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9137,39 +8972,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -9184,16 +9019,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9208,16 +9043,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9232,16 +9067,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -9253,16 +9088,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -9274,16 +9109,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -9295,16 +9130,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9316,16 +9151,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9337,16 +9172,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9358,13 +9193,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9376,16 +9211,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9397,13 +9232,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>

--- a/data/Wholesaler_Database.xlsx
+++ b/data/Wholesaler_Database.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/01_APP_Dash/01_APP_Production/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1488" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8291944C-A88A-468C-9E02-7C6D1936D437}"/>
+  <xr:revisionPtr revIDLastSave="1718" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38585AF7-133C-4CA6-9061-985FDD8215ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
     <sheet name="Mansfield" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="299">
   <si>
     <t>GMX20902</t>
   </si>
@@ -147,9 +147,6 @@
     <t>137 Combo</t>
   </si>
   <si>
-    <t>3489-V</t>
-  </si>
-  <si>
     <t>Mansfield</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>https://www.gerber-us.com/north-point-1-28-or-1-6-gpf-elongated-ergoheight-top-spud-bowl/products/us-G0025733</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/maxwell-1-28-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GWS20918</t>
-  </si>
-  <si>
     <t>https://www.americanstandard-us.com/Toilets-Commercial/Pressure-Assist-16-gpf-60-Lpf-Left-Hand-Trip-Lever-EverClean-Tank/WHITE-4142016020</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Toilet-Tank-Only/WHITE-4425A104020</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021</t>
-  </si>
-  <si>
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Chair-Height-Elongated-Bowl-Only-Less-Seat/WHITE-3437A101020</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>North Point ADA EL Bowl</t>
   </si>
   <si>
-    <t>Maxwell  12 ADA EL 1.28 Combo</t>
-  </si>
-  <si>
     <t>Maxwell 12 Std EL 1.28 Combo</t>
   </si>
   <si>
@@ -399,9 +387,6 @@
     <t>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</t>
   </si>
   <si>
-    <t>Rear</t>
-  </si>
-  <si>
     <t>Adriatic</t>
   </si>
   <si>
@@ -447,36 +432,18 @@
     <t>G0012780</t>
   </si>
   <si>
-    <t>G0012514</t>
-  </si>
-  <si>
     <t>G0012585</t>
   </si>
   <si>
     <t>G0012760</t>
   </si>
   <si>
-    <t>G0012884CH</t>
-  </si>
-  <si>
-    <t>G0013595</t>
-  </si>
-  <si>
-    <t>G0012504</t>
-  </si>
-  <si>
     <t>G0012791</t>
   </si>
   <si>
-    <t>G0012589</t>
-  </si>
-  <si>
     <t>328 4" LAV</t>
   </si>
   <si>
-    <t>239 4" MS ROUND LAV</t>
-  </si>
-  <si>
     <t>272 4" LAV</t>
   </si>
   <si>
@@ -504,9 +471,6 @@
     <t>218010001</t>
   </si>
   <si>
-    <t>239410000</t>
-  </si>
-  <si>
     <t>348410040</t>
   </si>
   <si>
@@ -588,9 +552,6 @@
     <t xml:space="preserve">Logan Square Undercounter Sink </t>
   </si>
   <si>
-    <t>Maxwell Round Self-Rimming Sink 4"</t>
-  </si>
-  <si>
     <t>Avalanche Pedestal Sink 4"</t>
   </si>
   <si>
@@ -762,15 +723,9 @@
     <t>https://www.gerber-us.com/luxoval-oval-standard-undercounter-bathroom-sink/products/us-G0012780</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/logan-square-4-centers-standard-pedestal-bathroom-sink/products/us-G0022585</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/logan-square-rectangular-standard-undercounter-bathroom-sink/products/us-G0012760</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/maxwell-round-4-centers-self-rimming-bathroom-sink/products/us-G0012884CH</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/avalanche-4-centers-standard-pedestal-bathroom-sink/products/us-G0023595</t>
   </si>
   <si>
@@ -783,15 +738,6 @@
     <t>List Price</t>
   </si>
   <si>
-    <t>317310000, 107380000</t>
-  </si>
-  <si>
-    <t>137210040, 103780000</t>
-  </si>
-  <si>
-    <t>135010007, 103580000</t>
-  </si>
-  <si>
     <t>URL_Img</t>
   </si>
   <si>
@@ -867,9 +813,6 @@
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-130010007-224.jpg</t>
   </si>
   <si>
-    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-151010000-262.jpg</t>
-  </si>
-  <si>
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-386010000-436.jpg</t>
   </si>
   <si>
@@ -888,9 +831,6 @@
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-218010001-42.jpg</t>
   </si>
   <si>
-    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-239410000-57.jpg</t>
-  </si>
-  <si>
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-348410040-203.jpg</t>
   </si>
   <si>
@@ -906,15 +846,9 @@
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-328810000-184.jpg</t>
   </si>
   <si>
-    <t>ALTO BOWL 151 EL ADA 1.6</t>
-  </si>
-  <si>
     <t>OPP 1035 EL  Bowl</t>
   </si>
   <si>
-    <t>QUANTUM TANK  123 LH</t>
-  </si>
-  <si>
     <t>ALTO TANK 3173 CTL 1.28</t>
   </si>
   <si>
@@ -925,6 +859,87 @@
   </si>
   <si>
     <t>348 4" LAV</t>
+  </si>
+  <si>
+    <t>3151/3486 combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantum 1,6 tank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </t>
+  </si>
+  <si>
+    <t>4142100</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilets-Commercial/Pressure-Assist-11-gpf-42-Lpf-Left-Hand-Trip-Lever-EverClean-Tank/WHITE-4142100020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Commercial/Commercial%20Toilets/Toilets%20Commercial/4142100/7y6fxtpx513p2b48fzt3wvq448n6hkm2.jpg</t>
+  </si>
+  <si>
+    <t>270CA001</t>
+  </si>
+  <si>
+    <t>VorMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VorMax 12" ADA EL Combo </t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-Elongated-16-gpf-Toilet/WHITE-270CA001020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Floor%20Standing%20Toilets/270CA001/e2tgz8b4vosw9whq3b3wd7lfr8ep1wp3.jpg</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>GHE28380</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/55DL86_AS01?hei=804&amp;wid=804</t>
+  </si>
+  <si>
+    <t>Oval</t>
+  </si>
+  <si>
+    <t>Undercounter</t>
+  </si>
+  <si>
+    <t>G0022514</t>
+  </si>
+  <si>
+    <t>Pedestal</t>
+  </si>
+  <si>
+    <t>G0023595</t>
+  </si>
+  <si>
+    <t>G0022504</t>
+  </si>
+  <si>
+    <t>Elongated ADA Rear outlet</t>
+  </si>
+  <si>
+    <t>Competencia</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Clean-Pedestal-Lav-4-Inch-CC/BONE-0236004EC021</t>
+  </si>
+  <si>
+    <t>G0022589</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/WHITE-4192A004020</t>
+  </si>
+  <si>
+    <t>Maxwell  12 ADA EL 1.6 Combo</t>
+  </si>
+  <si>
+    <t>https://www.gerber-us.com/maxwell-1-6-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GMX20918</t>
   </si>
 </sst>
 </file>
@@ -971,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,12 +1013,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1011,6 +1020,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1081,7 +1108,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1101,31 +1127,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -4809,16 +4849,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED469AA4-A78E-4B5E-BAD5-DDEAAC3BA3CB}" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBAC25D-F7DD-4CD9-B923-30774C72A643}" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0">
   <autoFilter ref="A1:G13" xr:uid="{ED469AA4-A78E-4B5E-BAD5-DDEAAC3BA3CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CB74C943-EB9C-4480-80B6-5E9F02E61F2A}" name="Marca"/>
-    <tableColumn id="2" xr3:uid="{600C6BD9-C0D8-4BAC-93AA-EEB723EABF48}" name="Descripcion  SKU"/>
-    <tableColumn id="3" xr3:uid="{66E1D603-32EC-4C0F-B0D3-456BC326C87F}" name="Codigo componente"/>
-    <tableColumn id="4" xr3:uid="{6B9571F0-9968-4A39-9033-31277A4A1A90}" name="Descripcion componente"/>
-    <tableColumn id="5" xr3:uid="{0F31CDE3-B055-4802-939F-B1F8EEDA4E87}" name="Price list"/>
-    <tableColumn id="6" xr3:uid="{911932A1-EC3B-4289-AE5A-81E7542EC922}" name="Multiplier"/>
-    <tableColumn id="7" xr3:uid="{1E74023B-F77F-40C8-908B-E3A8822A7EA2}" name="Platinum Price" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{36BF39CF-2866-4489-8D34-BD0C45308BC0}" name="Marca"/>
+    <tableColumn id="2" xr3:uid="{C93CF15B-73AD-4922-9023-64A37F5FE0C6}" name="Descripcion  SKU"/>
+    <tableColumn id="3" xr3:uid="{DE2A1496-B769-4FE5-AD7F-C319633FC748}" name="Codigo componente"/>
+    <tableColumn id="4" xr3:uid="{1BF22C22-AABF-49CC-AA8B-2216E0498ACF}" name="Descripcion componente"/>
+    <tableColumn id="5" xr3:uid="{ED8D28BB-DF9B-45AA-8736-340620E9783B}" name="Price list"/>
+    <tableColumn id="6" xr3:uid="{16AA7729-ACCB-4C8A-801D-13361AE09C7D}" name="Multiplier"/>
+    <tableColumn id="7" xr3:uid="{F2AEFDF7-2C01-485C-A49E-C54B4612E3A8}" name="Platinum Price" dataDxfId="0">
       <calculatedColumnFormula>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5123,28 +5163,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
+      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="60.140625" customWidth="1"/>
     <col min="14" max="14" width="169" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="105.7109375" bestFit="1" customWidth="1"/>
@@ -5174,10 +5213,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -5195,7 +5234,7 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>18</v>
@@ -5204,2397 +5243,2445 @@
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="str">
-        <f>VLOOKUP(B2,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C2" s="11" t="str">
+        <f>VLOOKUP(B2,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$50,B2)</f>
+      <c r="D2" s="11">
+        <f>COUNTIF($B$2:$B$51,B2)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="str">
+      <c r="G2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="11" t="str">
         <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>12</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="J2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="14">
         <v>1.6</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q2" s="25">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="21">
         <v>0.41</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="str">
-        <f>VLOOKUP(B3,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C3" s="11" t="str">
+        <f>VLOOKUP(B3,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
+      <c r="D3" s="11">
+        <f>COUNTIF($B$2:$B$51,B3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12" t="str">
+      <c r="G3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="11" t="str">
         <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>1.6</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q3" s="25">
+      <c r="M3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="21">
         <v>0.41</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="12" t="str">
-        <f>VLOOKUP(B4,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="B4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>VLOOKUP(B4,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11">
+        <f>COUNTIF($B$2:$B$51,B4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="12" t="str">
+      <c r="G4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="11" t="str">
         <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
         <v>Viper</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="J4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="14">
         <v>1.6</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q4" s="25">
+      <c r="M4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="21">
         <v>0.41</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f>VLOOKUP(B5,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C5" s="11" t="str">
+        <f>VLOOKUP(B5,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
+      <c r="D5" s="11">
+        <f>COUNTIF($B$2:$B$51,B5)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="12" t="str">
+      <c r="G5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="11" t="str">
         <f>VLOOKUP(E5,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>12</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="J5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="14">
         <v>1.28</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="25">
+      <c r="O5" s="13"/>
+      <c r="P5" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="21">
         <v>0.34</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="str">
-        <f>VLOOKUP(B6,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C6" s="11" t="str">
+        <f>VLOOKUP(B6,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
+      <c r="D6" s="11">
+        <f>COUNTIF($B$2:$B$51,B6)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="12" t="str">
+      <c r="G6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="11" t="str">
         <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>12</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>1.28</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q6" s="25">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="21">
         <v>0.34</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12" t="str">
-        <f>VLOOKUP(B7,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C7" s="11" t="str">
+        <f>VLOOKUP(B7,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
+      <c r="D7" s="11">
+        <f>COUNTIF($B$2:$B$51,B7)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="str">
+      <c r="G7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="str">
         <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>12</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="J7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="14">
         <v>1.28</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q7" s="25">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="21">
         <v>0.34</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="12" t="str">
-        <f>VLOOKUP(B8,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>VLOOKUP(B8,Mansfield!$D$1:$L$18,9,0)</f>
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
+      <c r="D8" s="11">
+        <f>COUNTIF($B$2:$B$51,B8)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="12" t="str">
+      <c r="G8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="11" t="str">
         <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>12</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="J8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="14">
         <v>1.6</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="25">
+      <c r="M8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="21">
         <v>0.34</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="11">
         <v>123010000</v>
       </c>
-      <c r="C9" s="31" t="str">
-        <f>VLOOKUP(B9,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
-      </c>
-      <c r="D9" s="31">
-        <f t="shared" si="0"/>
+      <c r="C9" s="11" t="str">
+        <f>VLOOKUP(B9,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">Quantum 1,6 tank </v>
+      </c>
+      <c r="D9" s="11">
+        <f>COUNTIF($B$2:$B$51,B9)</f>
         <v>2</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="31" t="str">
+      <c r="E9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11" t="str">
         <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="14">
         <v>12</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="33">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="14">
         <v>1.6</v>
       </c>
-      <c r="M9" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q9" s="34">
+      <c r="M9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="21">
         <v>0.41</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="11">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31">
-        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>VLOOKUP(B10,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="D10" s="26">
+        <f>COUNTIF($B$2:$B$51,B10)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="28">
+        <v>12</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28">
+        <v>1.28</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R10" s="26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="31">
+        <v>160010007</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>VLOOKUP(B11,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
+      <c r="D11" s="26">
+        <f>COUNTIF($B$2:$B$51,B11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="28">
+        <v>12</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R11" s="26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>VLOOKUP(B12,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 137 1.6</v>
+      </c>
+      <c r="D12" s="26">
+        <f>COUNTIF($B$2:$B$51,B12)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="28">
+        <v>12</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="28">
+        <v>1.28</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R12" s="26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>VLOOKUP(B13,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 135 EL 1.6</v>
+      </c>
+      <c r="D13" s="26">
+        <f>COUNTIF($B$2:$B$51,B13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="28">
+        <v>12</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="28">
+        <v>1.28</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R13" s="26">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>VLOOKUP(B14,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D14" s="26">
+        <f>COUNTIF($B$2:$B$51,B14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="28">
+        <v>12</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R14" s="26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>VLOOKUP(B15,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
+      </c>
+      <c r="D15" s="26">
+        <f>COUNTIF($B$2:$B$51,B15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R15" s="26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>VLOOKUP(B16,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
+      </c>
+      <c r="D16" s="11">
+        <f>COUNTIF($B$2:$B$51,B16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2467016</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="33">
+      <c r="H16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="11">
         <v>12</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="33">
-        <v>1.28</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R10" s="31">
-        <v>78</v>
-      </c>
+      <c r="J16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R16" s="11"/>
     </row>
-    <row r="11" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="36">
-        <v>160010007</v>
-      </c>
-      <c r="C11" s="31" t="str">
-        <f>VLOOKUP(B11,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
-      <c r="D11" s="31">
-        <f t="shared" si="0"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11">
+        <v>123010000</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f>VLOOKUP(B17,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">Quantum 1,6 tank </v>
+      </c>
+      <c r="D17" s="11">
+        <f>COUNTIF($B$2:$B$51,B17)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="33">
-        <v>12</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="33">
+      <c r="E17" s="16">
+        <v>4142016</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="11">
         <v>1.6</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R11" s="31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="33">
-        <v>12</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="33">
-        <v>1.28</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R12" s="31">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="33">
-        <v>12</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="33">
-        <v>1.28</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R13" s="31">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="31" t="str">
-        <f>VLOOKUP(B14,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
-      </c>
-      <c r="D14" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="33">
-        <v>12</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R14" s="31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f>VLOOKUP(B15,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
-      </c>
-      <c r="D15" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="I15" s="33">
-        <v>12</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q15" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R15" s="31">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f>VLOOKUP(B16,Mansfield!$D$1:$L$19,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
-      </c>
-      <c r="D16" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q16" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R16" s="31">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="12" t="str">
-        <f>VLOOKUP(B17,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2467016</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="12">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q17" s="25">
+      <c r="M17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="21">
         <v>0.34</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12">
-        <v>123010000</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>VLOOKUP(B18,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
+      <c r="B18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>VLOOKUP(B18,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
+      </c>
+      <c r="D18" s="11">
+        <f>COUNTIF($B$2:$B$51,B18)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="17">
-        <v>4142016</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="16">
+        <v>3043001</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="14">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f>VLOOKUP(B19,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="D19" s="11">
+        <f>COUNTIF($B$2:$B$51,B19)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15">
+        <v>160010007</v>
+      </c>
+      <c r="C20" s="11" t="str">
+        <f>VLOOKUP(B20,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
+      <c r="D20" s="11">
+        <f>COUNTIF($B$2:$B$51,B20)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="11" t="str">
+        <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 137 1.6</v>
+      </c>
+      <c r="D21" s="11">
+        <f>COUNTIF($B$2:$B$51,B21)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="14">
+        <v>12</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>VLOOKUP(B22,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 135 EL 1.6</v>
+      </c>
+      <c r="D22" s="11">
+        <f>COUNTIF($B$2:$B$51,B22)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="14">
+        <v>12</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f>VLOOKUP(B23,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D23" s="11">
+        <f>COUNTIF($B$2:$B$51,B23)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="14">
+        <v>12</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <f>VLOOKUP(B24,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
+      </c>
+      <c r="D24" s="11">
+        <f>COUNTIF($B$2:$B$51,B24)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f>VLOOKUP(B25,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
+      </c>
+      <c r="D25" s="11">
+        <f>COUNTIF($B$2:$B$51,B25)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="14">
+        <v>10</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="11" t="str">
+        <f>VLOOKUP(B26,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+      </c>
+      <c r="D26" s="11">
+        <f>COUNTIF($B$2:$B$51,B26)</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R18" s="12"/>
+      <c r="H26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="14">
+        <v>12</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="R26" s="11"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f>VLOOKUP(B19,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="11" t="str">
+        <f>VLOOKUP(B27,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>HET 3489-V El 1.28 Combo </v>
+      </c>
+      <c r="D27" s="11">
+        <f>COUNTIF($B$2:$B$51,B27)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="14">
+        <v>12</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>VLOOKUP(B28,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D28" s="8">
+        <f>COUNTIF($B$2:$B$51,B28)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="17">
-        <v>3043001</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="15">
-        <v>12</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R19" s="12"/>
+      <c r="E28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="R28" s="3"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
-        <f t="shared" si="0"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP(B29,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D29" s="8">
+        <f>COUNTIF($B$2:$B$51,B29)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q20" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="R20" s="19"/>
+      <c r="E29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="R29" s="3"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="16">
-        <v>160010007</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>VLOOKUP(B21,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(B30,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>292 Lav</v>
+      </c>
+      <c r="D30" s="8">
+        <f>COUNTIF($B$2:$B$51,B30)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R21" s="12"/>
+      <c r="E30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>0.41</v>
+      </c>
+      <c r="R30" s="8"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="21">
-        <v>12</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="R22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="21">
-        <v>12</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="R23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <f>VLOOKUP(B24,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="15">
-        <v>12</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="12" t="str">
-        <f>VLOOKUP(B25,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="17">
-        <v>3703100</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="15">
-        <v>12</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="12" t="str">
-        <f>VLOOKUP(B26,Mansfield!$D$1:$L$19,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="15">
-        <v>10</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>0.41</v>
-      </c>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="12" t="str">
-        <f>VLOOKUP(B28,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="15">
-        <v>12</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>0.41</v>
-      </c>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="12" t="str">
-        <f>VLOOKUP(B29,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>HET 3489-V El 1.28 Combo </v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="15">
-        <v>12</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>0.41</v>
-      </c>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>VLOOKUP(B30,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>237 Lav</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q30" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>VLOOKUP(B31,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>217 Lav</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
+      <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>VLOOKUP(B31,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 4" LAV</v>
+      </c>
+      <c r="D31" s="8">
+        <f>COUNTIF($B$2:$B$51,B31)</f>
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="O31" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q31" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q31" s="22">
         <v>0.41</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>592</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>VLOOKUP(B32,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>292 Lav</v>
-      </c>
-      <c r="D32" s="9">
-        <f t="shared" si="0"/>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f>VLOOKUP(B32,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="D32" s="8">
+        <f>COUNTIF($B$2:$B$51,B32)</f>
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" s="9"/>
       <c r="P32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q32" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="22">
         <v>0.41</v>
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>VLOOKUP(B33,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 4" LAV</v>
-      </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
+      <c r="B33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="8" t="str">
+        <f>VLOOKUP(B33,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>348 4" LAV</v>
+      </c>
+      <c r="D33" s="8">
+        <f>COUNTIF($B$2:$B$51,B33)</f>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="O33" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" s="9"/>
       <c r="P33" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q33" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q33" s="22">
         <v>0.41</v>
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>VLOOKUP(B34,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>218 COVINGTON LAV</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" ref="D34:D50" si="1">COUNTIF($B$2:$B$50,B34)</f>
+      <c r="B34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>VLOOKUP(B34,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>272 4" LAV</v>
+      </c>
+      <c r="D34" s="8">
+        <f>COUNTIF($B$2:$B$51,B34)</f>
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="O34" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q34" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="22">
         <v>0.41</v>
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>VLOOKUP(B35,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>239 4" MS ROUND LAV</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>VLOOKUP(B35,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>251 4" LAV</v>
+      </c>
+      <c r="D35" s="8">
+        <f>COUNTIF($B$2:$B$51,B35)</f>
+        <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="O35" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" s="9"/>
       <c r="P35" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q35" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q35" s="22">
         <v>0.41</v>
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>VLOOKUP(B36,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>348 4" LAV</v>
-      </c>
-      <c r="D36" s="9">
-        <f t="shared" si="1"/>
+      <c r="B36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>VLOOKUP(B36,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
+      </c>
+      <c r="D36" s="8">
+        <f>COUNTIF($B$2:$B$51,B36)</f>
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="O36" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="O36" s="9"/>
       <c r="P36" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q36" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q36" s="22">
         <v>0.41</v>
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f>VLOOKUP(B37,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>272 4" LAV</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" si="1"/>
+      <c r="B37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="8" t="str">
+        <f>VLOOKUP(B37,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="D37" s="8">
+        <f>COUNTIF($B$2:$B$51,B37)</f>
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O37" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" s="9"/>
       <c r="P37" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q37" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q37" s="22">
         <v>0.41</v>
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f>VLOOKUP(B38,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>251 4" LAV</v>
-      </c>
-      <c r="D38" s="9">
-        <f t="shared" si="1"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>VLOOKUP(B38,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D38" s="18">
+        <f>COUNTIF($B$2:$B$51,B38)</f>
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>0.41</v>
+      <c r="E38" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>0.34</v>
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f>VLOOKUP(B39,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D39" s="9">
-        <f t="shared" si="1"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="18" t="str">
+        <f>VLOOKUP(B39,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D39" s="18">
+        <f>COUNTIF($B$2:$B$51,B39)</f>
         <v>2</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>0.41</v>
+      <c r="E39" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>0.34</v>
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f>VLOOKUP(B40,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D40" s="9">
-        <f t="shared" si="1"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="18" t="str">
+        <f>VLOOKUP(B40,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>292 Lav</v>
+      </c>
+      <c r="D40" s="18">
+        <f>COUNTIF($B$2:$B$51,B40)</f>
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q40" s="27">
-        <v>0.41</v>
+      <c r="E40" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>0.34</v>
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="22" t="str">
-        <f>VLOOKUP(B41,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>237 Lav</v>
-      </c>
-      <c r="D41" s="22">
-        <f t="shared" si="1"/>
+      <c r="B41" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="18" t="str">
+        <f>VLOOKUP(B41,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 4" LAV</v>
+      </c>
+      <c r="D41" s="18">
+        <f>COUNTIF($B$2:$B$51,B41)</f>
         <v>2</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q41" s="28">
+      <c r="E41" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q41" s="23">
         <v>0.34</v>
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="22" t="str">
-        <f>VLOOKUP(B42,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>217 Lav</v>
-      </c>
-      <c r="D42" s="22">
-        <f t="shared" si="1"/>
+      <c r="B42" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="18" t="str">
+        <f>VLOOKUP(B42,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="D42" s="18">
+        <f>COUNTIF($B$2:$B$51,B42)</f>
         <v>2</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="N42" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q42" s="28">
+      <c r="E42" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q42" s="23">
         <v>0.34</v>
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="22" t="str">
-        <f>VLOOKUP(B43,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>292 Lav</v>
-      </c>
-      <c r="D43" s="22">
-        <f t="shared" si="1"/>
+      <c r="B43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="18" t="str">
+        <f>VLOOKUP(B43,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>348 4" LAV</v>
+      </c>
+      <c r="D43" s="18">
+        <f>COUNTIF($B$2:$B$51,B43)</f>
         <v>2</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q43" s="28">
+      <c r="E43" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q43" s="23">
         <v>0.34</v>
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="22" t="str">
-        <f>VLOOKUP(B44,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 4" LAV</v>
-      </c>
-      <c r="D44" s="22">
-        <f t="shared" si="1"/>
+      <c r="B44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="18" t="str">
+        <f>VLOOKUP(B44,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>272 4" LAV</v>
+      </c>
+      <c r="D44" s="18">
+        <f>COUNTIF($B$2:$B$51,B44)</f>
         <v>2</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q44" s="28">
+      <c r="E44" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q44" s="23">
         <v>0.34</v>
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="22" t="str">
-        <f>VLOOKUP(B45,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>218 COVINGTON LAV</v>
-      </c>
-      <c r="D45" s="22">
-        <f t="shared" si="1"/>
+      <c r="B45" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="18" t="str">
+        <f>VLOOKUP(B45,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>251 4" LAV</v>
+      </c>
+      <c r="D45" s="18">
+        <f>COUNTIF($B$2:$B$51,B45)</f>
         <v>2</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="N45" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q45" s="28">
+      <c r="E45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O45" s="20"/>
+      <c r="P45" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q45" s="23">
         <v>0.34</v>
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="22" t="str">
-        <f>VLOOKUP(B46,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>348 4" LAV</v>
-      </c>
-      <c r="D46" s="22">
-        <f t="shared" si="1"/>
+      <c r="B46" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="18" t="str">
+        <f>VLOOKUP(B46,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
+      </c>
+      <c r="D46" s="18">
+        <f>COUNTIF($B$2:$B$51,B46)</f>
         <v>2</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="N46" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q46" s="28">
+      <c r="E46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q46" s="23">
         <v>0.34</v>
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="22" t="str">
-        <f>VLOOKUP(B47,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>272 4" LAV</v>
-      </c>
-      <c r="D47" s="22">
-        <f t="shared" si="1"/>
+      <c r="B47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="18" t="str">
+        <f>VLOOKUP(B47,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="D47" s="18">
+        <f>COUNTIF($B$2:$B$51,B47)</f>
         <v>2</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="N47" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q47" s="28">
+      <c r="E47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q47" s="23">
         <v>0.34</v>
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="22" t="str">
-        <f>VLOOKUP(B48,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>251 4" LAV</v>
-      </c>
-      <c r="D48" s="22">
-        <f t="shared" si="1"/>
+      <c r="B48" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="C48" s="44" t="str">
+        <f>VLOOKUP(B48,Mansfield!$D$1:$L$47,9,0)</f>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="D48" s="38">
+        <f>COUNTIF($B$2:$B$51,B48)</f>
         <v>2</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="N48" s="24" t="s">
+      <c r="E48" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q48" s="28">
+      <c r="I48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O48" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" s="40">
         <v>0.34</v>
       </c>
-      <c r="R48" s="3"/>
+      <c r="R48" s="38"/>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="22" t="str">
-        <f>VLOOKUP(B49,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D49" s="22">
-        <f t="shared" si="1"/>
+      <c r="B49" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="44" t="str">
+        <f>VLOOKUP(B49,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>Summit 384/386  ADA 1.28 Combo</v>
+      </c>
+      <c r="D49" s="38">
+        <f>COUNTIF($B$2:$B$51,B49)</f>
         <v>2</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q49" s="28">
+      <c r="E49" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I49" s="38">
+        <v>12</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="38">
+        <v>1.28</v>
+      </c>
+      <c r="M49" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="N49" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q49" s="40">
         <v>0.34</v>
       </c>
-      <c r="R49" s="3"/>
+      <c r="R49" s="38"/>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="22" t="str">
-        <f>VLOOKUP(B50,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D50" s="22">
-        <f t="shared" si="1"/>
+    <row r="50" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="C50" s="44" t="str">
+        <f>VLOOKUP(B50,Mansfield!$D$1:$L$47,9,0)</f>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="D50" s="38">
+        <f>COUNTIF($B$2:$B$51,B50)</f>
         <v>2</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q50" s="28">
-        <v>0.34</v>
-      </c>
-      <c r="R50" s="3"/>
+      <c r="E50" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="P50" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>0.41</v>
+      </c>
+      <c r="R50" s="38">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="QUANTUM TANK  123 LH"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
-    <hyperlink ref="N17" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
-    <hyperlink ref="N18" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N48" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
+    <hyperlink ref="N17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
+    <hyperlink ref="N45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
     <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
     <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
     <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N30" r:id="rId8" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N31" r:id="rId9" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N33" r:id="rId10" xr:uid="{3F809B5C-0F80-4242-A83A-CB2D74BB3A0E}"/>
-    <hyperlink ref="N34" r:id="rId11" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N35" r:id="rId12" xr:uid="{F473458B-5628-44DC-BD66-D3DDD7DD07A2}"/>
-    <hyperlink ref="N36" r:id="rId13" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N38" r:id="rId14" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N39" r:id="rId15" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N40" r:id="rId16" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="O12" r:id="rId17" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N20" r:id="rId18" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
-    <hyperlink ref="N6" r:id="rId20" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N50" r:id="rId21" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="N33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="N35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="N36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="N37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="O12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="N19" r:id="rId13" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
+    <hyperlink ref="N6" r:id="rId14" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N47" r:id="rId15" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="O49" r:id="rId16" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
+    <hyperlink ref="N29" r:id="rId17" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="N28" r:id="rId18" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="N32" r:id="rId19" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="N43" r:id="rId20" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
+    <hyperlink ref="N20" r:id="rId21" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
@@ -7603,11 +7690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7621,9 +7707,10 @@
     <col min="14" max="14" width="184.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7643,10 +7730,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -7664,7 +7751,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -7679,45 +7766,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="4">
         <v>1.6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
-        <v>261</v>
+        <v>95</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P2" s="3">
         <v>0.42749999999999999</v>
@@ -7727,45 +7814,45 @@
         <v>206.63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="3">
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="K3" s="4">
         <v>1.6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P3" s="3">
         <v>0.42749999999999999</v>
@@ -7775,45 +7862,45 @@
         <v>224.85999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="4">
         <v>1.6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P4" s="3">
         <v>0.42749999999999999</v>
@@ -7823,91 +7910,96 @@
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="10">
+        <v>12</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1.28</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10">
+        <v>354.87</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3">
-        <v>354.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>94</v>
+      <c r="D6" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3">
         <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="4">
         <v>1.28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P6" s="3">
         <v>0.42749999999999999</v>
@@ -7917,45 +8009,45 @@
         <v>357.52</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>57</v>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="4">
         <v>1.6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P7" s="3">
         <v>0.42749999999999999</v>
@@ -7965,350 +8057,356 @@
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="3">
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="10">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="10">
         <v>1.28</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="L8" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="10">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="8">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="37">
         <v>52.257166153334992</v>
       </c>
+      <c r="S8" s="36" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P9" s="3">
+    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="10">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="8">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="37">
         <v>90.068346141637491</v>
       </c>
+      <c r="S9" s="36" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="9" t="s">
-        <v>89</v>
+      <c r="D10" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="K10" s="3">
         <v>1.28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P10" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>39.382151105261244</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>123010000</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P11" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="3" t="s">
+    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="25">
+        <v>10</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="J12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="25">
+        <v>1.28</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="8">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="8">
-        <v>41.3095536973387</v>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="7">
+        <v>117.11139459698248</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29">
-        <v>160010007</v>
+      <c r="D13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P13" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="8">
-        <v>41.309324999999994</v>
+      <c r="R13" s="7">
+        <v>41.3095536973387</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
+      <c r="D14" s="24">
+        <v>160010007</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="3">
-        <v>12</v>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.6</v>
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P14" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="8">
-        <v>94.481695102577731</v>
+      <c r="R14" s="7">
+        <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
+      <c r="D15" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
@@ -8317,46 +8415,46 @@
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K15" s="3">
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P15" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="8">
-        <v>54.817767294848409</v>
+      <c r="R15" s="7">
+        <v>94.481695102577731</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9" t="s">
-        <v>60</v>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>29</v>
@@ -8365,187 +8463,175 @@
         <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="K16" s="3">
         <v>1.6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P16" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="8">
-        <v>47.024419817793579</v>
+      <c r="R16" s="7">
+        <v>54.817767294848409</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9" t="s">
-        <v>92</v>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K17" s="3">
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P17" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="8">
-        <v>212.23939813904951</v>
+      <c r="R17" s="7">
+        <v>47.024419817793579</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9" t="s">
-        <v>93</v>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P18" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>49.064810425312494</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="6">
-        <v>10</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1.28</v>
-      </c>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P19" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="8">
-        <v>117.11139459698248</v>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="33">
+        <v>52.942869297499996</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7" t="s">
-        <v>148</v>
+      <c r="D20" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -8554,34 +8640,34 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P20" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="38">
-        <v>52.942869297499996</v>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="33">
+        <v>85.042520952999979</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
+      <c r="D21" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8590,34 +8676,34 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P21" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="38">
-        <v>85.042520952999979</v>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="33">
+        <v>157.47435999099997</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>150</v>
+      <c r="D22" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8626,34 +8712,34 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P22" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="38">
-        <v>157.47435999099997</v>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="33">
+        <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7" t="s">
-        <v>151</v>
+      <c r="D23" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8662,34 +8748,34 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>279</v>
+      <c r="N23" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P23" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="38">
-        <v>216.42350989999997</v>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="33">
+        <v>143.22306508899996</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7" t="s">
-        <v>152</v>
+      <c r="D24" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -8698,34 +8784,34 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="10" t="s">
-        <v>280</v>
+      <c r="N24" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P24" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="38">
-        <v>143.22306508899996</v>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="33">
+        <v>127.29442705849998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7" t="s">
-        <v>153</v>
+      <c r="D25" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -8734,34 +8820,34 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P25" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="38">
-        <v>53.863614850499999</v>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="33">
+        <v>112.84723806849998</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7" t="s">
-        <v>154</v>
+      <c r="D26" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -8770,34 +8856,34 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>293</v>
+        <v>134</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P26" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="38">
-        <v>127.29442705849998</v>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="33">
+        <v>96.55129862299998</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7" t="s">
-        <v>155</v>
+      <c r="D27" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -8806,34 +8892,34 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P27" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="38">
-        <v>112.84723806849998</v>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="33">
+        <v>179.00866749999997</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7" t="s">
-        <v>156</v>
+      <c r="D28" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8842,111 +8928,73 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P28" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="38">
-        <v>96.55129862299998</v>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="33">
+        <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="38">
-        <v>179.00866749999997</v>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10">
+        <v>155010000</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="36" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="38">
-        <v>216.42350989999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q31" s="39"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q32" s="39"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R30" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Commercial"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R28" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}"/>
   <hyperlinks>
-    <hyperlink ref="N24" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
+    <hyperlink ref="N23" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8954,15 +9002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C72B216-7B6C-43B6-A943-98341DCFCDB0}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF5173-B602-479E-9B9F-AF7329AFC369}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
@@ -8972,22 +9021,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
         <v>214</v>
-      </c>
-      <c r="D1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" t="s">
-        <v>227</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -8995,16 +9044,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -9019,16 +9068,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9043,16 +9092,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9067,16 +9116,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -9088,16 +9137,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -9109,16 +9158,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -9130,16 +9179,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9151,16 +9200,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9172,16 +9221,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9193,13 +9242,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9211,16 +9260,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9232,13 +9281,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>
@@ -9248,10 +9297,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="46">
+        <f>COUNTIF($B$17:$B$17,B17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="26">
+        <v>12</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" s="26"/>
+      <c r="O17" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R17" s="26">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="46">
+        <f>COUNTIF($B$18:$B$18,B18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="47">
+        <v>2878100</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="11">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R18" s="11"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O17" r:id="rId1" xr:uid="{B565251D-A3C2-4118-A6AD-CCBDBF11704D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Wholesaler_Database.xlsx
+++ b/data/Wholesaler_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/01_APP_Dash/01_APP_Production/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1718" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38585AF7-133C-4CA6-9061-985FDD8215ED}"/>
+  <xr:revisionPtr revIDLastSave="1723" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B516CE46-6284-4561-BC83-16F1A4593D24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1097,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1166,6 +1166,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5163,11 +5171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,7 +5266,7 @@
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D2" s="11">
-        <f>COUNTIF($B$2:$B$51,B2)</f>
+        <f>COUNTIF($B$2:$B$50,B2)</f>
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -5313,7 +5321,7 @@
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D3" s="11">
-        <f>COUNTIF($B$2:$B$51,B3)</f>
+        <f>COUNTIF($B$2:$B$50,B3)</f>
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -5368,7 +5376,7 @@
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="D4" s="11">
-        <f>COUNTIF($B$2:$B$51,B4)</f>
+        <f>COUNTIF($B$2:$B$50,B4)</f>
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -5423,7 +5431,7 @@
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D5" s="11">
-        <f>COUNTIF($B$2:$B$51,B5)</f>
+        <f>COUNTIF($B$2:$B$50,B5)</f>
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -5478,7 +5486,7 @@
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D6" s="11">
-        <f>COUNTIF($B$2:$B$51,B6)</f>
+        <f>COUNTIF($B$2:$B$50,B6)</f>
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -5533,7 +5541,7 @@
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D7" s="11">
-        <f>COUNTIF($B$2:$B$51,B7)</f>
+        <f>COUNTIF($B$2:$B$50,B7)</f>
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -5588,7 +5596,7 @@
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
       <c r="D8" s="11">
-        <f>COUNTIF($B$2:$B$51,B8)</f>
+        <f>COUNTIF($B$2:$B$50,B8)</f>
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -5643,7 +5651,7 @@
         <v xml:space="preserve">Quantum 1,6 tank </v>
       </c>
       <c r="D9" s="11">
-        <f>COUNTIF($B$2:$B$51,B9)</f>
+        <f>COUNTIF($B$2:$B$50,B9)</f>
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -5696,8 +5704,8 @@
         <v>ALTO TANK 3173 CTL 1.28</v>
       </c>
       <c r="D10" s="26">
-        <f>COUNTIF($B$2:$B$51,B10)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$50,B10)</f>
+        <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>120</v>
@@ -5748,7 +5756,7 @@
         <v>ALTO TANK 160 1.6</v>
       </c>
       <c r="D11" s="26">
-        <f>COUNTIF($B$2:$B$51,B11)</f>
+        <f>COUNTIF($B$2:$B$50,B11)</f>
         <v>2</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -5800,7 +5808,7 @@
         <v>ALTO BOWL 137 1.6</v>
       </c>
       <c r="D12" s="26">
-        <f>COUNTIF($B$2:$B$51,B12)</f>
+        <f>COUNTIF($B$2:$B$50,B12)</f>
         <v>2</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -5856,7 +5864,7 @@
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
       <c r="D13" s="26">
-        <f>COUNTIF($B$2:$B$51,B13)</f>
+        <f>COUNTIF($B$2:$B$50,B13)</f>
         <v>2</v>
       </c>
       <c r="E13" s="27" t="s">
@@ -5912,7 +5920,7 @@
         <v>ALTO BOWL 130 1.6</v>
       </c>
       <c r="D14" s="26">
-        <f>COUNTIF($B$2:$B$51,B14)</f>
+        <f>COUNTIF($B$2:$B$50,B14)</f>
         <v>2</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -5968,7 +5976,7 @@
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D15" s="26">
-        <f>COUNTIF($B$2:$B$51,B15)</f>
+        <f>COUNTIF($B$2:$B$50,B15)</f>
         <v>2</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -6018,7 +6026,7 @@
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
       <c r="D16" s="11">
-        <f>COUNTIF($B$2:$B$51,B16)</f>
+        <f>COUNTIF($B$2:$B$50,B16)</f>
         <v>2</v>
       </c>
       <c r="E16" s="12">
@@ -6072,7 +6080,7 @@
         <v xml:space="preserve">Quantum 1,6 tank </v>
       </c>
       <c r="D17" s="11">
-        <f>COUNTIF($B$2:$B$51,B17)</f>
+        <f>COUNTIF($B$2:$B$50,B17)</f>
         <v>2</v>
       </c>
       <c r="E17" s="16">
@@ -6120,7 +6128,7 @@
         <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D18" s="11">
-        <f>COUNTIF($B$2:$B$51,B18)</f>
+        <f>COUNTIF($B$2:$B$50,B18)</f>
         <v>2</v>
       </c>
       <c r="E18" s="16">
@@ -6166,19 +6174,19 @@
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>55</v>
+      <c r="B19" s="15">
+        <v>160010007</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>VLOOKUP(B19,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO TANK 3173 CTL 1.28</v>
+        <v>ALTO TANK 160 1.6</v>
       </c>
       <c r="D19" s="11">
-        <f>COUNTIF($B$2:$B$51,B19)</f>
+        <f>COUNTIF($B$2:$B$50,B19)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>36</v>
+      <c r="E19" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>29</v>
@@ -6189,17 +6197,17 @@
       <c r="H19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="17">
-        <v>1.28</v>
+      <c r="L19" s="14">
+        <v>1.6</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11" t="s">
@@ -6214,40 +6222,46 @@
       <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="15">
-        <v>160010007</v>
+      <c r="B20" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>VLOOKUP(B20,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
+        <v>ALTO BOWL 137 1.6</v>
       </c>
       <c r="D20" s="11">
-        <f>COUNTIF($B$2:$B$51,B20)</f>
+        <f>COUNTIF($B$2:$B$50,B20)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
+      <c r="E20" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="14">
-        <v>1.6</v>
+      <c r="I20" s="14">
+        <v>12</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1.28</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>296</v>
+        <v>121</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11" t="s">
@@ -6263,18 +6277,18 @@
         <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO BOWL 137 1.6</v>
+        <v>ALTO BOWL 135 EL 1.6</v>
       </c>
       <c r="D21" s="11">
-        <f>COUNTIF($B$2:$B$51,B21)</f>
+        <f>COUNTIF($B$2:$B$50,B21)</f>
         <v>2</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>29</v>
@@ -6289,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>50</v>
@@ -6298,10 +6312,10 @@
         <v>1.28</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11" t="s">
@@ -6317,18 +6331,18 @@
         <v>6</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>VLOOKUP(B22,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO BOWL 135 EL 1.6</v>
+        <v>ALTO BOWL 130 1.6</v>
       </c>
       <c r="D22" s="11">
-        <f>COUNTIF($B$2:$B$51,B22)</f>
+        <f>COUNTIF($B$2:$B$50,B22)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>39</v>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>29</v>
@@ -6346,16 +6360,16 @@
         <v>49</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="17">
+        <v>51</v>
+      </c>
+      <c r="L22" s="14">
         <v>1.28</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11" t="s">
@@ -6371,45 +6385,39 @@
         <v>6</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C23" s="11" t="str">
         <f>VLOOKUP(B23,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D23" s="11">
-        <f>COUNTIF($B$2:$B$51,B23)</f>
+        <f>COUNTIF($B$2:$B$50,B23)</f>
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="14">
-        <v>12</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="14">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11" t="s">
@@ -6422,49 +6430,55 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="11" t="str">
         <f>VLOOKUP(B24,Mansfield!$D$1:$L$18,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D24" s="11">
-        <f>COUNTIF($B$2:$B$51,B24)</f>
+        <f>COUNTIF($B$2:$B$50,B24)</f>
         <v>2</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="I24" s="14">
+        <v>10</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="L24" s="14">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q24" s="21">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R24" s="11"/>
     </row>
@@ -6473,30 +6487,30 @@
         <v>4</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>VLOOKUP(B25,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D25" s="11">
-        <f>COUNTIF($B$2:$B$51,B25)</f>
+        <f>COUNTIF($B$2:$B$50,B25)</f>
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I25" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>48</v>
@@ -6508,10 +6522,10 @@
         <v>1.28</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11" t="s">
@@ -6527,18 +6541,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>VLOOKUP(B26,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+        <v>HET 3489-V El 1.28 Combo </v>
       </c>
       <c r="D26" s="11">
-        <f>COUNTIF($B$2:$B$51,B26)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$50,B26)</f>
+        <v>1</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>29</v>
@@ -6553,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>50</v>
@@ -6562,10 +6576,10 @@
         <v>1.28</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11" t="s">
@@ -6577,82 +6591,72 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="11" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>HET 3489-V El 1.28 Combo </v>
-      </c>
-      <c r="D27" s="11">
-        <f>COUNTIF($B$2:$B$51,B27)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="14">
-        <v>12</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="14">
-        <v>1.28</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11" t="s">
+      <c r="B27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>VLOOKUP(B27,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D27" s="8">
+        <f>COUNTIF($B$2:$B$50,B27)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="22">
         <v>0.41</v>
       </c>
-      <c r="R27" s="11"/>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C28" s="8" t="str">
         <f>VLOOKUP(B28,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>237 Lav</v>
+        <v>217 Lav</v>
       </c>
       <c r="D28" s="8">
-        <f>COUNTIF($B$2:$B$51,B28)</f>
+        <f>COUNTIF($B$2:$B$50,B28)</f>
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -6660,10 +6664,10 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="3" t="s">
@@ -6674,117 +6678,117 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>138</v>
+      <c r="B29" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="C29" s="8" t="str">
         <f>VLOOKUP(B29,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>217 Lav</v>
+        <v>292 Lav</v>
       </c>
       <c r="D29" s="8">
-        <f>COUNTIF($B$2:$B$51,B29)</f>
+        <f>COUNTIF($B$2:$B$50,B29)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="3" t="s">
+      <c r="G29" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="45">
         <v>0.41</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>139</v>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="8" t="str">
         <f>VLOOKUP(B30,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>292 Lav</v>
+        <v>328 4" LAV</v>
       </c>
       <c r="D30" s="8">
-        <f>COUNTIF($B$2:$B$51,B30)</f>
+        <f>COUNTIF($B$2:$B$50,B30)</f>
         <v>2</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="22">
         <v>0.41</v>
       </c>
-      <c r="R30" s="8"/>
+      <c r="R30" s="3">
+        <v>592</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" s="8" t="str">
         <f>VLOOKUP(B31,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 4" LAV</v>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D31" s="8">
-        <f>COUNTIF($B$2:$B$51,B31)</f>
+        <f>COUNTIF($B$2:$B$50,B31)</f>
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>289</v>
+      <c r="G31" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6792,9 +6796,11 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N31" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="3" t="s">
         <v>230</v>
@@ -6802,33 +6808,31 @@
       <c r="Q31" s="22">
         <v>0.41</v>
       </c>
-      <c r="R31" s="3">
-        <v>592</v>
-      </c>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="8" t="str">
         <f>VLOOKUP(B32,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <v>348 4" LAV</v>
       </c>
       <c r="D32" s="8">
-        <f>COUNTIF($B$2:$B$51,B32)</f>
+        <f>COUNTIF($B$2:$B$50,B32)</f>
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -6836,10 +6840,10 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="3" t="s">
@@ -6855,18 +6859,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="8" t="str">
         <f>VLOOKUP(B33,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>348 4" LAV</v>
+        <v>272 4" LAV</v>
       </c>
       <c r="D33" s="8">
-        <f>COUNTIF($B$2:$B$51,B33)</f>
+        <f>COUNTIF($B$2:$B$50,B33)</f>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>126</v>
@@ -6880,12 +6884,12 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="O33" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
         <v>230</v>
       </c>
@@ -6899,24 +6903,24 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="8" t="str">
         <f>VLOOKUP(B34,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>272 4" LAV</v>
+        <v>251 4" LAV</v>
       </c>
       <c r="D34" s="8">
-        <f>COUNTIF($B$2:$B$51,B34)</f>
+        <f>COUNTIF($B$2:$B$50,B34)</f>
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -6924,12 +6928,12 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O34" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="9"/>
       <c r="P34" s="3" t="s">
         <v>230</v>
       </c>
@@ -6943,24 +6947,24 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="8" t="str">
         <f>VLOOKUP(B35,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D35" s="8">
-        <f>COUNTIF($B$2:$B$51,B35)</f>
+        <f>COUNTIF($B$2:$B$50,B35)</f>
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -6968,10 +6972,10 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="3" t="s">
@@ -6987,24 +6991,24 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36" s="8" t="str">
         <f>VLOOKUP(B36,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
+        <v>328 8" LAV</v>
       </c>
       <c r="D36" s="8">
-        <f>COUNTIF($B$2:$B$51,B36)</f>
+        <f>COUNTIF($B$2:$B$50,B36)</f>
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -7012,10 +7016,10 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="3" t="s">
@@ -7027,46 +7031,44 @@
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="8" t="str">
+      <c r="A37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="18" t="str">
         <f>VLOOKUP(B37,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D37" s="8">
-        <f>COUNTIF($B$2:$B$51,B37)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D37" s="18">
+        <f>COUNTIF($B$2:$B$50,B37)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="3" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q37" s="22">
-        <v>0.41</v>
+      <c r="Q37" s="23">
+        <v>0.34</v>
       </c>
       <c r="R37" s="3"/>
     </row>
@@ -7075,18 +7077,18 @@
         <v>6</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="18" t="str">
         <f>VLOOKUP(B38,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>237 Lav</v>
+        <v>217 Lav</v>
       </c>
       <c r="D38" s="18">
-        <f>COUNTIF($B$2:$B$51,B38)</f>
+        <f>COUNTIF($B$2:$B$50,B38)</f>
         <v>2</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>126</v>
@@ -7098,10 +7100,10 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O38" s="18"/>
       <c r="P38" s="18" t="s">
@@ -7117,18 +7119,18 @@
         <v>6</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="18" t="str">
         <f>VLOOKUP(B39,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>217 Lav</v>
+        <v>292 Lav</v>
       </c>
       <c r="D39" s="18">
-        <f>COUNTIF($B$2:$B$51,B39)</f>
+        <f>COUNTIF($B$2:$B$50,B39)</f>
         <v>2</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>126</v>
@@ -7140,10 +7142,10 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O39" s="18"/>
       <c r="P39" s="18" t="s">
@@ -7159,18 +7161,18 @@
         <v>6</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" s="18" t="str">
         <f>VLOOKUP(B40,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>292 Lav</v>
+        <v>328 4" LAV</v>
       </c>
       <c r="D40" s="18">
-        <f>COUNTIF($B$2:$B$51,B40)</f>
+        <f>COUNTIF($B$2:$B$50,B40)</f>
         <v>2</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>149</v>
+      <c r="E40" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>126</v>
@@ -7182,10 +7184,10 @@
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="18" t="s">
@@ -7201,18 +7203,18 @@
         <v>6</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" s="18" t="str">
         <f>VLOOKUP(B41,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 4" LAV</v>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D41" s="18">
-        <f>COUNTIF($B$2:$B$51,B41)</f>
+        <f>COUNTIF($B$2:$B$50,B41)</f>
         <v>2</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>178</v>
+      <c r="E41" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>126</v>
@@ -7224,10 +7226,10 @@
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O41" s="18"/>
       <c r="P41" s="18" t="s">
@@ -7243,18 +7245,18 @@
         <v>6</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" s="18" t="str">
         <f>VLOOKUP(B42,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <v>348 4" LAV</v>
       </c>
       <c r="D42" s="18">
-        <f>COUNTIF($B$2:$B$51,B42)</f>
+        <f>COUNTIF($B$2:$B$50,B42)</f>
         <v>2</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>126</v>
@@ -7266,10 +7268,10 @@
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>180</v>
+        <v>160</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="O42" s="18"/>
       <c r="P42" s="18" t="s">
@@ -7285,18 +7287,18 @@
         <v>6</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" s="18" t="str">
         <f>VLOOKUP(B43,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>348 4" LAV</v>
+        <v>272 4" LAV</v>
       </c>
       <c r="D43" s="18">
-        <f>COUNTIF($B$2:$B$51,B43)</f>
+        <f>COUNTIF($B$2:$B$50,B43)</f>
         <v>2</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>126</v>
@@ -7308,10 +7310,10 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>294</v>
+        <v>161</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="O43" s="18"/>
       <c r="P43" s="18" t="s">
@@ -7327,18 +7329,18 @@
         <v>6</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="18" t="str">
         <f>VLOOKUP(B44,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>272 4" LAV</v>
+        <v>251 4" LAV</v>
       </c>
       <c r="D44" s="18">
-        <f>COUNTIF($B$2:$B$51,B44)</f>
+        <f>COUNTIF($B$2:$B$50,B44)</f>
         <v>2</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>126</v>
@@ -7350,12 +7352,12 @@
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="O44" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" s="20"/>
       <c r="P44" s="18" t="s">
         <v>230</v>
       </c>
@@ -7369,18 +7371,18 @@
         <v>6</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" s="18" t="str">
         <f>VLOOKUP(B45,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D45" s="18">
-        <f>COUNTIF($B$2:$B$51,B45)</f>
+        <f>COUNTIF($B$2:$B$50,B45)</f>
         <v>2</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>126</v>
@@ -7392,12 +7394,12 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="O45" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O45" s="18"/>
       <c r="P45" s="18" t="s">
         <v>230</v>
       </c>
@@ -7411,18 +7413,18 @@
         <v>6</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" s="18" t="str">
         <f>VLOOKUP(B46,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
+        <v>328 8" LAV</v>
       </c>
       <c r="D46" s="18">
-        <f>COUNTIF($B$2:$B$51,B46)</f>
+        <f>COUNTIF($B$2:$B$50,B46)</f>
         <v>2</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>126</v>
@@ -7434,10 +7436,10 @@
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>182</v>
+        <v>163</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="O46" s="18"/>
       <c r="P46" s="18" t="s">
@@ -7448,95 +7450,109 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="18" t="str">
+      <c r="B47" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="C47" s="44" t="str">
         <f>VLOOKUP(B47,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D47" s="18">
-        <f>COUNTIF($B$2:$B$51,B47)</f>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="D47" s="38">
+        <f>COUNTIF($B$2:$B$50,B47)</f>
         <v>2</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18" t="s">
+      <c r="E47" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O47" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="P47" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="40">
         <v>0.34</v>
       </c>
-      <c r="R47" s="3"/>
+      <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="38">
-        <v>155010000</v>
+      <c r="B48" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="C48" s="44" t="str">
         <f>VLOOKUP(B48,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+        <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="D48" s="38">
-        <f>COUNTIF($B$2:$B$51,B48)</f>
+        <f>COUNTIF($B$2:$B$50,B48)</f>
         <v>2</v>
       </c>
-      <c r="E48" s="39" t="s">
-        <v>275</v>
+      <c r="E48" s="42" t="s">
+        <v>278</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>47</v>
+        <v>279</v>
+      </c>
+      <c r="I48" s="38">
+        <v>12</v>
       </c>
       <c r="J48" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="L48" s="38">
+        <v>1.28</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="O48" s="38" t="s">
-        <v>277</v>
+        <v>280</v>
+      </c>
+      <c r="N48" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="P48" s="38" t="s">
         <v>230</v>
@@ -7548,143 +7564,86 @@
     </row>
     <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="B49" s="38">
+        <v>155010000</v>
       </c>
       <c r="C49" s="44" t="str">
         <f>VLOOKUP(B49,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>Summit 384/386  ADA 1.28 Combo</v>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
       </c>
       <c r="D49" s="38">
-        <f>COUNTIF($B$2:$B$51,B49)</f>
+        <f>COUNTIF($B$2:$B$50,B49)</f>
         <v>2</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>278</v>
+      <c r="E49" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I49" s="38">
-        <v>12</v>
+        <v>188</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="L49" s="38">
-        <v>1.28</v>
+        <v>47</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="N49" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="O49" s="43" t="s">
-        <v>282</v>
+        <v>190</v>
+      </c>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="P49" s="38" t="s">
         <v>230</v>
       </c>
       <c r="Q49" s="40">
-        <v>0.34</v>
-      </c>
-      <c r="R49" s="38"/>
-    </row>
-    <row r="50" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="38">
-        <v>155010000</v>
-      </c>
-      <c r="C50" s="44" t="str">
-        <f>VLOOKUP(B50,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
-      </c>
-      <c r="D50" s="38">
-        <f>COUNTIF($B$2:$B$51,B50)</f>
-        <v>2</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="P50" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q50" s="40">
         <v>0.41</v>
       </c>
-      <c r="R50" s="38">
+      <c r="R49" s="38">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="A1:R49" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
     <hyperlink ref="N16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
     <hyperlink ref="N17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="N44" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
     <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
     <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
     <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="N32" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="N34" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="N35" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="N36" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
     <hyperlink ref="O12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N19" r:id="rId13" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
-    <hyperlink ref="N6" r:id="rId14" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N47" r:id="rId15" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
-    <hyperlink ref="O49" r:id="rId16" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
-    <hyperlink ref="N29" r:id="rId17" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N28" r:id="rId18" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N32" r:id="rId19" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N43" r:id="rId20" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
-    <hyperlink ref="N20" r:id="rId21" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="N6" r:id="rId13" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N46" r:id="rId14" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="O48" r:id="rId15" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
+    <hyperlink ref="N28" r:id="rId16" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="N27" r:id="rId17" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="N31" r:id="rId18" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="N42" r:id="rId19" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
+    <hyperlink ref="N19" r:id="rId20" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -9003,10 +8962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF5173-B602-479E-9B9F-AF7329AFC369}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9405,13 +9364,62 @@
       </c>
       <c r="R18" s="11"/>
     </row>
+    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="D21" s="10">
+        <f>COUNTIF($B$21:$B$21,B21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="50">
+        <v>1.28</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q21" s="51">
+        <v>0.34</v>
+      </c>
+      <c r="R21" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O17" r:id="rId1" xr:uid="{B565251D-A3C2-4118-A6AD-CCBDBF11704D}"/>
+    <hyperlink ref="N21" r:id="rId2" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>